--- a/xls/MZE-Výzkumný ústav potravinářský Praha, v.v.i._All.xlsx
+++ b/xls/MZE-Výzkumný ústav potravinářský Praha, v.v.i._All.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="175">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,18 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
+    <t>IsLocalJournal</t>
+  </si>
+  <si>
+    <t>IsPredatoryJournal</t>
+  </si>
+  <si>
     <t>Jimp</t>
   </si>
   <si>
@@ -199,9 +211,6 @@
     <t>Porovnání metod stanovení antioxidační aktivity v ovocných a zeleninových šťávách</t>
   </si>
   <si>
-    <t>Monitoring of daily gliadin intake in patients on gluten-free diets</t>
-  </si>
-  <si>
     <t>Yield stress and sensorial evaluation of soya yoghurts prepared from germinated soybeans</t>
   </si>
   <si>
@@ -289,9 +298,6 @@
     <t>0009-2770</t>
   </si>
   <si>
-    <t>1214-6994</t>
-  </si>
-  <si>
     <t>1837-9664</t>
   </si>
   <si>
@@ -340,9 +346,6 @@
     <t>Chemické listy</t>
   </si>
   <si>
-    <t>Prague Medical Report</t>
-  </si>
-  <si>
     <t>International Journal of Cancer</t>
   </si>
   <si>
@@ -436,9 +439,6 @@
     <t>40ff1f06dc8692fa8227d63c48fb5858d9710965</t>
   </si>
   <si>
-    <t>43b4e9812d39992350a08af58492328ba32b4904</t>
-  </si>
-  <si>
     <t>4e58c803ace81fcb3f8e73926eb5def529e889be</t>
   </si>
   <si>
@@ -515,6 +515,30 @@
   </si>
   <si>
     <t>MZE-Výzkumný ústav potravinářský Praha, v.v.i.</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>JT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering and Technology </t>
+  </si>
+  <si>
+    <t>Natural Sciences</t>
+  </si>
+  <si>
+    <t>Medical and Health Sciences</t>
   </si>
 </sst>
 </file>
@@ -885,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -896,7 +920,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,13 +978,25 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0.41666666</v>
@@ -969,22 +1005,22 @@
         <v>6.197349500000001</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
         <v>159</v>
@@ -1004,13 +1040,25 @@
       <c r="S2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="s">
+        <v>167</v>
+      </c>
+      <c r="U2" t="s">
+        <v>172</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2014</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0.40000001</v>
@@ -1019,25 +1067,25 @@
         <v>6.6650925</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L3" t="s">
         <v>159</v>
@@ -1057,13 +1105,25 @@
       <c r="S3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U3" t="s">
+        <v>172</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2011</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1072,25 +1132,25 @@
         <v>13.579</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L4" t="s">
         <v>159</v>
@@ -1110,13 +1170,25 @@
       <c r="S4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="s">
+        <v>167</v>
+      </c>
+      <c r="U4" t="s">
+        <v>172</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0.25</v>
@@ -1125,22 +1197,22 @@
         <v>4.1729999</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L5" t="s">
         <v>159</v>
@@ -1160,13 +1232,25 @@
       <c r="S5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="s">
+        <v>167</v>
+      </c>
+      <c r="U5" t="s">
+        <v>172</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>0.30769232</v>
@@ -1175,22 +1259,22 @@
         <v>12.283496</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L6" t="s">
         <v>159</v>
@@ -1210,13 +1294,25 @@
       <c r="S6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="s">
+        <v>167</v>
+      </c>
+      <c r="U6" t="s">
+        <v>172</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>0.36363637</v>
@@ -1225,25 +1321,25 @@
         <v>6.7261424</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L7" t="s">
         <v>159</v>
@@ -1263,13 +1359,25 @@
       <c r="S7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="s">
+        <v>167</v>
+      </c>
+      <c r="U7" t="s">
+        <v>172</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>2013</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -1278,25 +1386,25 @@
         <v>9.133999800000002</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s">
         <v>159</v>
@@ -1316,13 +1424,25 @@
       <c r="S8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="s">
+        <v>167</v>
+      </c>
+      <c r="U8" t="s">
+        <v>172</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2013</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>0.80000001</v>
@@ -1331,22 +1451,22 @@
         <v>62.167999</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s">
         <v>159</v>
@@ -1366,13 +1486,25 @@
       <c r="S9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="s">
+        <v>167</v>
+      </c>
+      <c r="U9" t="s">
+        <v>172</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2012</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -1381,22 +1513,22 @@
         <v>7.820000200000001</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s">
         <v>159</v>
@@ -1416,13 +1548,25 @@
       <c r="S10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="s">
+        <v>167</v>
+      </c>
+      <c r="U10" t="s">
+        <v>172</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2013</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>0.15384616</v>
@@ -1431,22 +1575,22 @@
         <v>3.483</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
         <v>159</v>
@@ -1466,13 +1610,25 @@
       <c r="S11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="s">
+        <v>167</v>
+      </c>
+      <c r="U11" t="s">
+        <v>172</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2011</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1481,22 +1637,22 @@
         <v>22.242001</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
         <v>159</v>
@@ -1516,13 +1672,25 @@
       <c r="S12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="s">
+        <v>167</v>
+      </c>
+      <c r="U12" t="s">
+        <v>172</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>0.40000001</v>
@@ -1531,22 +1699,22 @@
         <v>6.645</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
         <v>159</v>
@@ -1566,13 +1734,25 @@
       <c r="S13" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" t="s">
+        <v>167</v>
+      </c>
+      <c r="U13" t="s">
+        <v>172</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>2011</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -1581,22 +1761,22 @@
         <v>11.494</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
         <v>159</v>
@@ -1616,13 +1796,25 @@
       <c r="S14" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" t="s">
+        <v>168</v>
+      </c>
+      <c r="U14" t="s">
+        <v>173</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>2011</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1631,22 +1823,22 @@
         <v>16.01</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
         <v>159</v>
@@ -1666,37 +1858,52 @@
       <c r="S15" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" t="s">
+        <v>167</v>
+      </c>
+      <c r="U15" t="s">
+        <v>172</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>0.40000001</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>5.407000099999999</v>
+        <v>13.730841</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
         <v>159</v>
@@ -1716,40 +1923,49 @@
       <c r="S16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" t="s">
+        <v>167</v>
+      </c>
+      <c r="U16" t="s">
+        <v>172</v>
+      </c>
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.84210527</v>
       </c>
       <c r="D17">
-        <v>13.730841</v>
+        <v>13.99</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
         <v>159</v>
@@ -1769,137 +1985,173 @@
       <c r="S17" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" t="s">
+        <v>167</v>
+      </c>
+      <c r="U17" t="s">
+        <v>172</v>
+      </c>
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>0.14285715</v>
+      </c>
+      <c r="D18">
+        <v>9.781476</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>162</v>
+      </c>
+      <c r="P18">
+        <v>27022</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>165</v>
+      </c>
+      <c r="R18" t="s">
+        <v>166</v>
+      </c>
+      <c r="S18" t="s">
+        <v>166</v>
+      </c>
+      <c r="T18" t="s">
+        <v>169</v>
+      </c>
+      <c r="U18" t="s">
+        <v>174</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>0.667</v>
+      </c>
+      <c r="D19">
+        <v>11.093</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19">
+        <v>27022</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>165</v>
+      </c>
+      <c r="R19" t="s">
+        <v>166</v>
+      </c>
+      <c r="S19" t="s">
+        <v>166</v>
+      </c>
+      <c r="T19" t="s">
+        <v>167</v>
+      </c>
+      <c r="U19" t="s">
+        <v>172</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
         <v>2011</v>
       </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>0.84210527</v>
-      </c>
-      <c r="D18">
-        <v>13.99</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" t="s">
-        <v>159</v>
-      </c>
-      <c r="O18" t="s">
-        <v>160</v>
-      </c>
-      <c r="P18">
-        <v>27022</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>165</v>
-      </c>
-      <c r="R18" t="s">
-        <v>166</v>
-      </c>
-      <c r="S18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19">
-        <v>2014</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>0.14285715</v>
-      </c>
-      <c r="D19">
-        <v>9.781476</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" t="s">
-        <v>159</v>
-      </c>
-      <c r="O19" t="s">
-        <v>162</v>
-      </c>
-      <c r="P19">
-        <v>27022</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>165</v>
-      </c>
-      <c r="R19" t="s">
-        <v>166</v>
-      </c>
-      <c r="S19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20">
-        <v>2012</v>
-      </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>0.667</v>
+        <v>0.85714287</v>
       </c>
       <c r="D20">
-        <v>11.093</v>
+        <v>19.063999</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" t="s">
         <v>159</v>
@@ -1919,290 +2171,362 @@
       <c r="S20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" t="s">
+        <v>167</v>
+      </c>
+      <c r="U20" t="s">
+        <v>172</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
+        <v>2012</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>0.90909094</v>
+      </c>
+      <c r="D21">
+        <v>19.92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P21">
+        <v>27022</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>165</v>
+      </c>
+      <c r="R21" t="s">
+        <v>166</v>
+      </c>
+      <c r="S21" t="s">
+        <v>166</v>
+      </c>
+      <c r="T21" t="s">
+        <v>170</v>
+      </c>
+      <c r="U21" t="s">
+        <v>173</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>2013</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>0.85714287</v>
+      </c>
+      <c r="D22">
+        <v>19.197001</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22">
+        <v>27022</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>165</v>
+      </c>
+      <c r="R22" t="s">
+        <v>166</v>
+      </c>
+      <c r="S22" t="s">
+        <v>166</v>
+      </c>
+      <c r="T22" t="s">
+        <v>171</v>
+      </c>
+      <c r="U22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>2014</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>0.63636363</v>
+      </c>
+      <c r="D23">
+        <v>8.7378073</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" t="s">
+        <v>115</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" t="s">
+        <v>160</v>
+      </c>
+      <c r="P23">
+        <v>27022</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>165</v>
+      </c>
+      <c r="R23" t="s">
+        <v>166</v>
+      </c>
+      <c r="S23" t="s">
+        <v>166</v>
+      </c>
+      <c r="T23" t="s">
+        <v>167</v>
+      </c>
+      <c r="U23" t="s">
+        <v>172</v>
+      </c>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>2013</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.333</v>
+      </c>
+      <c r="D24">
+        <v>7.4650002</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24" t="s">
+        <v>159</v>
+      </c>
+      <c r="O24" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24">
+        <v>27022</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>165</v>
+      </c>
+      <c r="R24" t="s">
+        <v>166</v>
+      </c>
+      <c r="S24" t="s">
+        <v>166</v>
+      </c>
+      <c r="T24" t="s">
+        <v>171</v>
+      </c>
+      <c r="U24" t="s">
+        <v>172</v>
+      </c>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>2012</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.83899999</v>
+      </c>
+      <c r="D25">
+        <v>15.101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L25" t="s">
+        <v>159</v>
+      </c>
+      <c r="O25" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25">
+        <v>27022</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>165</v>
+      </c>
+      <c r="R25" t="s">
+        <v>166</v>
+      </c>
+      <c r="S25" t="s">
+        <v>166</v>
+      </c>
+      <c r="T25" t="s">
+        <v>167</v>
+      </c>
+      <c r="U25" t="s">
+        <v>172</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
         <v>2011</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>0.85714287</v>
-      </c>
-      <c r="D21">
-        <v>19.063999</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" t="s">
-        <v>159</v>
-      </c>
-      <c r="O21" t="s">
-        <v>160</v>
-      </c>
-      <c r="P21">
-        <v>27022</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>165</v>
-      </c>
-      <c r="R21" t="s">
-        <v>166</v>
-      </c>
-      <c r="S21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22">
-        <v>2012</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>0.90909094</v>
-      </c>
-      <c r="D22">
-        <v>19.92</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" t="s">
-        <v>159</v>
-      </c>
-      <c r="O22" t="s">
-        <v>163</v>
-      </c>
-      <c r="P22">
-        <v>27022</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>165</v>
-      </c>
-      <c r="R22" t="s">
-        <v>166</v>
-      </c>
-      <c r="S22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23">
-        <v>2013</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>0.85714287</v>
-      </c>
-      <c r="D23">
-        <v>19.197001</v>
-      </c>
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" t="s">
-        <v>118</v>
-      </c>
-      <c r="K23" t="s">
-        <v>147</v>
-      </c>
-      <c r="L23" t="s">
-        <v>159</v>
-      </c>
-      <c r="O23" t="s">
-        <v>164</v>
-      </c>
-      <c r="P23">
-        <v>27022</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>165</v>
-      </c>
-      <c r="R23" t="s">
-        <v>166</v>
-      </c>
-      <c r="S23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24">
-        <v>2014</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>0.63636363</v>
-      </c>
-      <c r="D24">
-        <v>8.7378073</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L24" t="s">
-        <v>159</v>
-      </c>
-      <c r="O24" t="s">
-        <v>160</v>
-      </c>
-      <c r="P24">
-        <v>27022</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>165</v>
-      </c>
-      <c r="R24" t="s">
-        <v>166</v>
-      </c>
-      <c r="S24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25">
-        <v>2013</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>0.333</v>
-      </c>
-      <c r="D25">
-        <v>7.4650002</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" t="s">
-        <v>159</v>
-      </c>
-      <c r="O25" t="s">
-        <v>164</v>
-      </c>
-      <c r="P25">
-        <v>27022</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>165</v>
-      </c>
-      <c r="R25" t="s">
-        <v>166</v>
-      </c>
-      <c r="S25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26">
-        <v>2012</v>
-      </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>0.83899999</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>15.101</v>
+        <v>16.613001</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s">
         <v>159</v>
@@ -2222,37 +2546,52 @@
       <c r="S26" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" t="s">
+        <v>167</v>
+      </c>
+      <c r="U26" t="s">
+        <v>172</v>
+      </c>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.9565217499999999</v>
       </c>
       <c r="D27">
-        <v>16.613001</v>
+        <v>13.133847</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="K27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L27" t="s">
         <v>159</v>
@@ -2272,40 +2611,49 @@
       <c r="S27" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" t="s">
+        <v>167</v>
+      </c>
+      <c r="U27" t="s">
+        <v>172</v>
+      </c>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>2014</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>0.9565217499999999</v>
+        <v>0.33333334</v>
       </c>
       <c r="D28">
-        <v>13.133847</v>
+        <v>13.081326</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s">
         <v>159</v>
@@ -2325,37 +2673,49 @@
       <c r="S28" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" t="s">
+        <v>167</v>
+      </c>
+      <c r="U28" t="s">
+        <v>172</v>
+      </c>
+      <c r="V28" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29">
-        <v>0.33333334</v>
+        <v>0.40000001</v>
       </c>
       <c r="D29">
-        <v>13.081326</v>
+        <v>5.9494553</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s">
         <v>159</v>
@@ -2375,37 +2735,49 @@
       <c r="S29" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" t="s">
+        <v>167</v>
+      </c>
+      <c r="U29" t="s">
+        <v>172</v>
+      </c>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>2015</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C30">
-        <v>0.40000001</v>
+        <v>0.26666668</v>
       </c>
       <c r="D30">
-        <v>5.9494553</v>
+        <v>3.9663036</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L30" t="s">
         <v>159</v>
@@ -2425,37 +2797,49 @@
       <c r="S30" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30" t="s">
+        <v>167</v>
+      </c>
+      <c r="U30" t="s">
+        <v>172</v>
+      </c>
+      <c r="V30" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>0.26666668</v>
+        <v>0.2</v>
       </c>
       <c r="D31">
-        <v>3.9663036</v>
+        <v>4.9299998</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L31" t="s">
         <v>159</v>
@@ -2475,37 +2859,49 @@
       <c r="S31" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31" t="s">
+        <v>167</v>
+      </c>
+      <c r="U31" t="s">
+        <v>172</v>
+      </c>
+      <c r="V31" t="b">
+        <v>0</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>2011</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>0.2</v>
+        <v>0.47058824</v>
       </c>
       <c r="D32">
-        <v>4.9299998</v>
+        <v>61.960999</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s">
         <v>159</v>
@@ -2525,37 +2921,49 @@
       <c r="S32" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32" t="s">
+        <v>167</v>
+      </c>
+      <c r="U32" t="s">
+        <v>172</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C33">
-        <v>0.47058824</v>
+        <v>0.5</v>
       </c>
       <c r="D33">
-        <v>61.960999</v>
+        <v>8.8360004</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L33" t="s">
         <v>159</v>
@@ -2575,55 +2983,17 @@
       <c r="S33" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34">
-        <v>2012</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34">
-        <v>0.5</v>
-      </c>
-      <c r="D34">
-        <v>8.8360004</v>
-      </c>
-      <c r="E34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" t="s">
-        <v>158</v>
-      </c>
-      <c r="L34" t="s">
-        <v>159</v>
-      </c>
-      <c r="O34" t="s">
-        <v>160</v>
-      </c>
-      <c r="P34">
-        <v>27022</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>165</v>
-      </c>
-      <c r="R34" t="s">
-        <v>166</v>
-      </c>
-      <c r="S34" t="s">
-        <v>166</v>
+      <c r="T33" t="s">
+        <v>167</v>
+      </c>
+      <c r="U33" t="s">
+        <v>172</v>
+      </c>
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2632,9 +3002,9 @@
     <hyperlink ref="J4" r:id="rId2"/>
     <hyperlink ref="J7" r:id="rId3"/>
     <hyperlink ref="J8" r:id="rId4"/>
-    <hyperlink ref="J17" r:id="rId5"/>
-    <hyperlink ref="J24" r:id="rId6"/>
-    <hyperlink ref="J28" r:id="rId7"/>
+    <hyperlink ref="J16" r:id="rId5"/>
+    <hyperlink ref="J23" r:id="rId6"/>
+    <hyperlink ref="J27" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xls/MZE-Výzkumný ústav potravinářský Praha, v.v.i._All.xlsx
+++ b/xls/MZE-Výzkumný ústav potravinářský Praha, v.v.i._All.xlsx
@@ -79,10 +79,10 @@
     <t>Record_FOS_category</t>
   </si>
   <si>
-    <t>IsLocalJournal</t>
-  </si>
-  <si>
-    <t>IsPredatoryJournal</t>
+    <t>Místní časopis</t>
+  </si>
+  <si>
+    <t>Predátorský časopis</t>
   </si>
   <si>
     <t>Jimp</t>
